--- a/src/main/java/testing/excel/hw8.xlsx
+++ b/src/main/java/testing/excel/hw8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/soltware_testing/src/main/java/testing/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/软测/soltware_testing-master/src/main/java/testing/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C91ED08-7A8C-1A4B-B524-215FEEFE5461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234941FC-FB90-3C4A-802F-7913A356E14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6820" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>等价类</t>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -264,18 +260,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>题目1</t>
     </r>
@@ -339,14 +323,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ssss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>year</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -356,6 +332,10 @@
   </si>
   <si>
     <t>day</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -632,43 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="13"/>
@@ -706,19 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="13"/>
@@ -737,7 +667,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -783,9 +713,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -834,52 +761,25 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2059,14 +1959,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:4" ht="65" customHeight="1">
-      <c r="B4" s="19"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="7" spans="2:4" ht="19">
       <c r="B7" s="1" t="s">
@@ -2089,10 +1989,10 @@
     <row r="10" spans="2:4" ht="17">
       <c r="B10" s="3"/>
       <c r="C10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="17">
@@ -2105,10 +2005,10 @@
     <row r="12" spans="2:4" ht="17">
       <c r="B12" s="3"/>
       <c r="C12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2032,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2143,19 +2043,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="F1" s="6"/>
     </row>
@@ -2166,398 +2066,398 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A3" s="23">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="24">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23">
+        <v>5</v>
+      </c>
+      <c r="D3" s="23">
+        <v>5</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A4" s="26">
+        <v>2039</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26">
+        <v>12</v>
+      </c>
+      <c r="D4" s="26">
+        <v>6</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A5" s="25">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25">
+        <v>15</v>
+      </c>
+      <c r="C5" s="25">
+        <v>29</v>
+      </c>
+      <c r="D5" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.75" customHeight="1">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.75" customHeight="1">
+      <c r="A7" s="25">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A3" s="24">
-        <v>2024</v>
-      </c>
-      <c r="B3" s="25">
+      <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C3" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D3" s="24">
-        <v>5</v>
-      </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A4" s="27">
-        <v>2039</v>
-      </c>
-      <c r="B4" s="27">
-        <v>2</v>
-      </c>
-      <c r="C4" s="34">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D4" s="27">
-        <v>12</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A5" s="26">
-        <v>15</v>
-      </c>
-      <c r="B5" s="26">
-        <v>15</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="C7" s="25">
         <v>0</v>
       </c>
-      <c r="D5" s="26">
-        <v>29</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A6" s="26">
-        <v>3</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="D7" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A8" s="25">
+        <v>0</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A9" s="25">
+        <v>0</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A10" s="25">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25">
+        <v>11</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.75" customHeight="1">
+      <c r="A11" s="25">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25">
+        <v>10</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" ht="23.75" customHeight="1">
+      <c r="A12" s="25">
+        <v>20</v>
+      </c>
+      <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C12" s="25">
+        <v>20</v>
+      </c>
+      <c r="D12" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A13" s="25">
+        <v>20</v>
+      </c>
+      <c r="B13" s="25">
         <v>0</v>
       </c>
-      <c r="D6" s="26">
-        <v>5</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A7" s="26">
+      <c r="C13" s="25">
+        <v>20</v>
+      </c>
+      <c r="D13" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A14" s="25">
+        <v>20</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25">
+        <v>20</v>
+      </c>
+      <c r="D14" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A15" s="25">
+        <v>20</v>
+      </c>
+      <c r="B15" s="25">
+        <v>11</v>
+      </c>
+      <c r="C15" s="25">
+        <v>20</v>
+      </c>
+      <c r="D15" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.75" customHeight="1">
+      <c r="A16" s="25">
+        <v>20</v>
+      </c>
+      <c r="B16" s="25">
+        <v>10</v>
+      </c>
+      <c r="C16" s="25">
+        <v>20</v>
+      </c>
+      <c r="D16" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.25" customHeight="1">
+      <c r="A17" s="27">
+        <v>44640</v>
+      </c>
+      <c r="B17" s="25">
+        <v>4</v>
+      </c>
+      <c r="C17" s="27">
+        <v>44640</v>
+      </c>
+      <c r="D17" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="A18" s="27">
+        <v>44640</v>
+      </c>
+      <c r="B18" s="25">
         <v>0</v>
       </c>
-      <c r="B7" s="26">
+      <c r="C18" s="27">
+        <v>44640</v>
+      </c>
+      <c r="D18" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="A19" s="27">
+        <v>44640</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27">
+        <v>44640</v>
+      </c>
+      <c r="D19" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="A20" s="27">
+        <v>44640</v>
+      </c>
+      <c r="B20" s="25">
+        <v>11</v>
+      </c>
+      <c r="C20" s="27">
+        <v>44640</v>
+      </c>
+      <c r="D20" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="A21" s="27">
+        <v>44640</v>
+      </c>
+      <c r="B21" s="25">
+        <v>10</v>
+      </c>
+      <c r="C21" s="27">
+        <v>44640</v>
+      </c>
+      <c r="D21" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="A22" s="27">
+        <v>44000</v>
+      </c>
+      <c r="B22" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C22" s="27">
+        <v>44000</v>
+      </c>
+      <c r="D22" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="20" customHeight="1">
+      <c r="A23" s="25">
+        <v>44000</v>
+      </c>
+      <c r="B23" s="25">
         <v>0</v>
       </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A8" s="26">
-        <v>0</v>
-      </c>
-      <c r="B8" s="26">
-        <v>0</v>
-      </c>
-      <c r="C8" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A9" s="26">
-        <v>0</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="C23" s="25">
+        <v>44000</v>
+      </c>
+      <c r="D23" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" ht="20" customHeight="1">
+      <c r="A24" s="27">
+        <v>44000</v>
+      </c>
+      <c r="B24" s="25">
         <v>1</v>
       </c>
-      <c r="C9" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A10" s="26">
-        <v>0</v>
-      </c>
-      <c r="B10" s="26">
+      <c r="C24" s="27">
+        <v>44000</v>
+      </c>
+      <c r="D24" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" ht="20" customHeight="1">
+      <c r="A25" s="26">
+        <v>44000</v>
+      </c>
+      <c r="B25" s="26">
         <v>11</v>
       </c>
-      <c r="C10" s="35">
-        <v>0</v>
-      </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A11" s="26">
-        <v>0</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="C25" s="26">
+        <v>44000</v>
+      </c>
+      <c r="D25" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" ht="20" customHeight="1">
+      <c r="A26" s="29">
+        <v>44000</v>
+      </c>
+      <c r="B26" s="26">
         <v>10</v>
       </c>
-      <c r="C11" s="35">
-        <v>0</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A12" s="26">
-        <v>20</v>
-      </c>
-      <c r="B12" s="26">
-        <v>4</v>
-      </c>
-      <c r="C12" s="35">
-        <v>0</v>
-      </c>
-      <c r="D12" s="26">
-        <v>20</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A13" s="26">
-        <v>20</v>
-      </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="26">
-        <v>20</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A14" s="26">
-        <v>20</v>
-      </c>
-      <c r="B14" s="26">
-        <v>1</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="D14" s="26">
-        <v>20</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A15" s="26">
-        <v>20</v>
-      </c>
-      <c r="B15" s="26">
-        <v>11</v>
-      </c>
-      <c r="C15" s="35">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26">
-        <v>20</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A16" s="26">
-        <v>20</v>
-      </c>
-      <c r="B16" s="26">
-        <v>10</v>
-      </c>
-      <c r="C16" s="36">
-        <v>5</v>
-      </c>
-      <c r="D16" s="26">
-        <v>20</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.25" customHeight="1">
-      <c r="A17" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B17" s="26">
-        <v>4</v>
-      </c>
-      <c r="C17" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D17" s="28">
-        <v>44640</v>
-      </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D18" s="28">
-        <v>44640</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B19" s="26">
-        <v>1</v>
-      </c>
-      <c r="C19" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D19" s="28">
-        <v>44640</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B20" s="26">
-        <v>11</v>
-      </c>
-      <c r="C20" s="35">
-        <v>0</v>
-      </c>
-      <c r="D20" s="28">
-        <v>44640</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B21" s="26">
-        <v>10</v>
-      </c>
-      <c r="C21" s="35">
-        <v>0</v>
-      </c>
-      <c r="D21" s="28">
-        <v>44640</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="28">
+      <c r="C26" s="29">
         <v>44000</v>
       </c>
-      <c r="B22" s="26">
-        <v>4</v>
-      </c>
-      <c r="C22" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D22" s="28">
-        <v>44000</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="26">
-        <v>44000</v>
-      </c>
-      <c r="B23" s="26">
-        <v>0</v>
-      </c>
-      <c r="C23" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D23" s="26">
-        <v>44000</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="28">
-        <v>44000</v>
-      </c>
-      <c r="B24" s="26">
-        <v>1</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D24" s="28">
-        <v>44000</v>
-      </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="27">
-        <v>44000</v>
-      </c>
-      <c r="B25" s="27">
-        <v>11</v>
-      </c>
-      <c r="C25" s="37">
-        <v>0</v>
-      </c>
-      <c r="D25" s="27">
-        <v>44000</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="30">
-        <v>44000</v>
-      </c>
-      <c r="B26" s="27">
-        <v>10</v>
-      </c>
-      <c r="C26" s="37">
-        <v>0</v>
-      </c>
-      <c r="D26" s="30">
-        <v>44000</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="30"/>
+      <c r="D26" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2580,7 +2480,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2592,19 +2492,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -2612,92 +2512,92 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="7">
-        <v>20</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="8">
-        <v>21</v>
-      </c>
-      <c r="C2" s="32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
       </c>
       <c r="D2" s="7">
-        <v>22</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A3" s="23">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="24">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23">
+        <v>5</v>
+      </c>
+      <c r="D3" s="23">
+        <v>5</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A4" s="26">
+        <v>2039</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26">
+        <v>12</v>
+      </c>
+      <c r="D4" s="26">
+        <v>6</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A3" s="24">
-        <v>18</v>
-      </c>
-      <c r="B3" s="25">
-        <v>19</v>
-      </c>
-      <c r="C3" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D3" s="24">
-        <v>33</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="16" t="s">
+    <row r="5" spans="1:6" ht="22.25" customHeight="1">
+      <c r="A5" s="25">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25">
+        <v>15</v>
+      </c>
+      <c r="C5" s="25">
+        <v>29</v>
+      </c>
+      <c r="D5" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A4" s="27">
-        <v>17</v>
-      </c>
-      <c r="B4" s="27">
-        <v>12</v>
-      </c>
-      <c r="C4" s="34">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D4" s="27">
-        <v>12</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A5" s="26">
-        <v>15</v>
-      </c>
-      <c r="B5" s="26">
-        <v>15</v>
-      </c>
-      <c r="C5" s="35">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
-        <v>29</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="6" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>4</v>
       </c>
-      <c r="C6" s="35">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="25">
         <v>5</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="16" t="s">
-        <v>10</v>
+      <c r="D6" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.25" customHeight="1">
@@ -2707,15 +2607,15 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>6</v>
+      <c r="C7" s="10">
+        <v>500000</v>
       </c>
       <c r="D7" s="10">
-        <v>500000</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="17" t="s">
-        <v>12</v>
+        <v>-1</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.25" customHeight="1">
@@ -2725,15 +2625,15 @@
       <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>6</v>
+      <c r="C8" s="10">
+        <v>500000</v>
       </c>
       <c r="D8" s="10">
-        <v>500000</v>
-      </c>
-      <c r="E8" s="47"/>
+        <v>-1</v>
+      </c>
+      <c r="E8" s="37"/>
       <c r="F8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -2743,15 +2643,15 @@
       <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>6</v>
+      <c r="C9" s="10">
+        <v>500000</v>
       </c>
       <c r="D9" s="10">
-        <v>500000</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="17" t="s">
-        <v>11</v>
+        <v>-1</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -2761,15 +2661,15 @@
       <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>6</v>
+      <c r="C10" s="10">
+        <v>500000</v>
       </c>
       <c r="D10" s="10">
-        <v>500000</v>
-      </c>
-      <c r="E10" s="47"/>
+        <v>-1</v>
+      </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -2779,15 +2679,15 @@
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>6</v>
+      <c r="C11" s="10">
+        <v>500000</v>
       </c>
       <c r="D11" s="10">
-        <v>500000</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="17" t="s">
-        <v>11</v>
+        <v>-1</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -2797,15 +2697,15 @@
       <c r="B12" s="11">
         <v>-3</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>6</v>
+      <c r="C12" s="11">
+        <v>20</v>
       </c>
       <c r="D12" s="11">
-        <v>20</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="20" t="s">
-        <v>14</v>
+        <v>-1</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
@@ -2815,15 +2715,15 @@
       <c r="B13" s="11">
         <v>-3</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>6</v>
+      <c r="C13" s="11">
+        <v>80</v>
       </c>
       <c r="D13" s="11">
-        <v>80</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="20" t="s">
-        <v>14</v>
+        <v>-1</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -2833,15 +2733,15 @@
       <c r="B14" s="11">
         <v>-3</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>6</v>
+      <c r="C14" s="11">
+        <v>150</v>
       </c>
       <c r="D14" s="11">
-        <v>150</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="20" t="s">
-        <v>13</v>
+        <v>-1</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -2851,15 +2751,15 @@
       <c r="B15" s="11">
         <v>-3</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>6</v>
+      <c r="C15" s="11">
+        <v>200</v>
       </c>
       <c r="D15" s="11">
-        <v>200</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="20" t="s">
-        <v>13</v>
+        <v>-1</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -2869,15 +2769,15 @@
       <c r="B16" s="11">
         <v>-3</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>6</v>
+      <c r="C16" s="11">
+        <v>500</v>
       </c>
       <c r="D16" s="11">
-        <v>500</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="20" t="s">
-        <v>13</v>
+        <v>-1</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -2887,15 +2787,15 @@
       <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>6</v>
+      <c r="C17" s="11">
+        <v>20</v>
       </c>
       <c r="D17" s="11">
-        <v>20</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="20" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -2905,33 +2805,33 @@
       <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>6</v>
+      <c r="C18" s="11">
+        <v>80</v>
       </c>
       <c r="D18" s="11">
-        <v>80</v>
-      </c>
-      <c r="E18" s="47"/>
+        <v>-1</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="F18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="11">
         <v>150</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>15</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>6</v>
+      <c r="C19" s="11">
+        <v>150</v>
       </c>
       <c r="D19" s="11">
-        <v>150</v>
-      </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="20" t="s">
-        <v>15</v>
+        <v>-1</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
@@ -2941,15 +2841,15 @@
       <c r="B20" s="11">
         <v>12</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>6</v>
+      <c r="C20" s="11">
+        <v>200</v>
       </c>
       <c r="D20" s="11">
-        <v>200</v>
-      </c>
-      <c r="E20" s="47"/>
+        <v>-1</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="F20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
@@ -2959,465 +2859,465 @@
       <c r="B21" s="11">
         <v>12</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>6</v>
+      <c r="C21" s="11">
+        <v>500</v>
       </c>
       <c r="D21" s="11">
-        <v>500</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="20" t="s">
-        <v>15</v>
+        <v>-1</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>20</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C22" s="21">
         <v>20</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="20" t="s">
-        <v>17</v>
+      <c r="D22" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>80</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="44">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="C23" s="22">
         <v>80</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="20" t="s">
-        <v>18</v>
+      <c r="D23" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>150</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="22">
         <v>150</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="20" t="s">
-        <v>19</v>
+      <c r="D24" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>200</v>
       </c>
       <c r="B25" s="11">
         <v>1</v>
       </c>
-      <c r="C25" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="C25" s="22">
         <v>200</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="20" t="s">
-        <v>22</v>
+      <c r="D25" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>500</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
       </c>
-      <c r="C26" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="C26" s="22">
         <v>500</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="20" t="s">
-        <v>23</v>
+      <c r="D26" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>20</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
       </c>
-      <c r="C27" s="45">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="21">
         <v>20</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="20" t="s">
-        <v>24</v>
+      <c r="D27" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>80</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="44">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="C28" s="22">
         <v>80</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="20" t="s">
-        <v>25</v>
+      <c r="D28" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>150</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
       </c>
-      <c r="C29" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="C29" s="22">
         <v>150</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="20" t="s">
-        <v>26</v>
+      <c r="D29" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>200</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="C30" s="22">
         <v>200</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="20" t="s">
-        <v>20</v>
+      <c r="D30" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>500</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
-      <c r="C31" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="22">
         <v>500</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="20" t="s">
-        <v>21</v>
+      <c r="D31" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>20</v>
       </c>
       <c r="B32" s="11">
         <v>3</v>
       </c>
-      <c r="C32" s="45">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="21">
         <v>20</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="20" t="s">
-        <v>27</v>
+      <c r="D32" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>80</v>
       </c>
       <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="45">
-        <v>0</v>
-      </c>
-      <c r="D33" s="23">
+      <c r="C33" s="22">
         <v>80</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="20" t="s">
-        <v>28</v>
+      <c r="D33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>150</v>
       </c>
       <c r="B34" s="11">
         <v>3</v>
       </c>
-      <c r="C34" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="D34" s="23">
+      <c r="C34" s="22">
         <v>150</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="20" t="s">
-        <v>29</v>
+      <c r="D34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>200</v>
       </c>
       <c r="B35" s="11">
         <v>3</v>
       </c>
-      <c r="C35" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D35" s="23">
+      <c r="C35" s="22">
         <v>200</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="20" t="s">
-        <v>30</v>
+      <c r="D35" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>500</v>
       </c>
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D36" s="23">
+      <c r="C36" s="22">
         <v>500</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="20" t="s">
-        <v>31</v>
+      <c r="D36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20" customHeight="1">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <v>20</v>
       </c>
       <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="45">
-        <v>0</v>
-      </c>
-      <c r="D37" s="22">
+      <c r="C37" s="21">
         <v>20</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="20" t="s">
-        <v>32</v>
+      <c r="D37" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" customHeight="1">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>80</v>
       </c>
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="45">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
+      <c r="C38" s="22">
         <v>80</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="20" t="s">
-        <v>33</v>
+      <c r="D38" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>150</v>
       </c>
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="45">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="C39" s="22">
         <v>150</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="20" t="s">
-        <v>34</v>
+      <c r="D39" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20" customHeight="1">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>200</v>
       </c>
       <c r="B40" s="11">
         <v>5</v>
       </c>
-      <c r="C40" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D40" s="23">
+      <c r="C40" s="22">
         <v>200</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="20" t="s">
-        <v>36</v>
+      <c r="D40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" customHeight="1">
-      <c r="A41" s="23">
+      <c r="A41" s="22">
         <v>500</v>
       </c>
       <c r="B41" s="11">
         <v>6</v>
       </c>
-      <c r="C41" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D41" s="23">
+      <c r="C41" s="22">
         <v>500</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="20" t="s">
-        <v>35</v>
+      <c r="D41" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20" customHeight="1">
-      <c r="A42" s="22">
+      <c r="A42" s="21">
         <v>20</v>
       </c>
       <c r="B42" s="11">
         <v>7</v>
       </c>
-      <c r="C42" s="45">
-        <v>0</v>
-      </c>
-      <c r="D42" s="22">
+      <c r="C42" s="21">
         <v>20</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="20" t="s">
-        <v>37</v>
+      <c r="D42" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20" customHeight="1">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>80</v>
       </c>
       <c r="B43" s="11">
         <v>8</v>
       </c>
-      <c r="C43" s="45">
-        <v>0</v>
-      </c>
-      <c r="D43" s="23">
+      <c r="C43" s="22">
         <v>80</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="20" t="s">
-        <v>38</v>
+      <c r="D43" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20" customHeight="1">
-      <c r="A44" s="23">
+      <c r="A44" s="22">
         <v>150</v>
       </c>
       <c r="B44" s="11">
         <v>9</v>
       </c>
-      <c r="C44" s="45">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23">
+      <c r="C44" s="22">
         <v>150</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="20" t="s">
-        <v>39</v>
+      <c r="D44" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20" customHeight="1">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>200</v>
       </c>
       <c r="B45" s="11">
         <v>8</v>
       </c>
-      <c r="C45" s="45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="23">
+      <c r="C45" s="22">
         <v>200</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="20" t="s">
-        <v>40</v>
+      <c r="D45" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
-      <c r="A46" s="23">
+      <c r="A46" s="22">
         <v>500</v>
       </c>
       <c r="B46" s="11">
         <v>9</v>
       </c>
-      <c r="C46" s="45">
-        <v>0</v>
-      </c>
-      <c r="D46" s="23">
+      <c r="C46" s="22">
         <v>500</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="20" t="s">
-        <v>41</v>
+      <c r="D46" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testing/excel/hw8.xlsx
+++ b/src/main/java/testing/excel/hw8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/软测/soltware_testing-master/src/main/java/testing/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件测试\soltware_testing-master\src\main\java\testing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234941FC-FB90-3C4A-802F-7913A356E14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE5A1CD-C2B4-4E79-873D-8191CDECAB9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6816" yWindow="504" windowWidth="21024" windowHeight="16020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -484,21 +484,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -506,21 +491,6 @@
       </right>
       <top style="thin">
         <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
@@ -568,19 +538,6 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -661,13 +618,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -689,22 +655,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -713,10 +670,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -725,63 +682,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1951,24 +1893,24 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:4" ht="49.95" customHeight="1">
+      <c r="B3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="2:4" ht="65" customHeight="1">
-      <c r="B4" s="18"/>
-    </row>
-    <row r="7" spans="2:4" ht="19">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="2:4" ht="64.95" customHeight="1">
+      <c r="B4" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,35 +1921,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="17">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="3"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="17">
+    <row r="11" spans="2:4" ht="15">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="17">
+    <row r="12" spans="2:4" ht="15">
       <c r="B12" s="3"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2026,16 +1968,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="16.33203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="16.33203125" style="4"/>
@@ -2048,416 +1990,506 @@
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="29">
+        <v>6</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A3" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="29">
+        <v>6</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A4" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="29">
+        <v>6</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>4</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A5" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="29">
+        <v>6</v>
+      </c>
+      <c r="C5" s="29">
+        <v>15</v>
+      </c>
+      <c r="D5" s="29">
+        <v>3</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="29">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29">
+        <v>29</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="29">
+        <v>6</v>
+      </c>
+      <c r="C7" s="29">
+        <v>31</v>
+      </c>
+      <c r="D7" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A8" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="29">
+        <v>6</v>
+      </c>
+      <c r="C8" s="29">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A9" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>15</v>
+      </c>
+      <c r="D9" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A10" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>15</v>
+      </c>
+      <c r="D10" s="29">
+        <v>6</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A11" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="29">
+        <v>2</v>
+      </c>
+      <c r="C11" s="29">
+        <v>15</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A12" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="29">
+        <v>11</v>
+      </c>
+      <c r="C12" s="29">
+        <v>15</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A13" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="29">
+        <v>12</v>
+      </c>
+      <c r="C13" s="29">
+        <v>15</v>
+      </c>
+      <c r="D13" s="29">
+        <v>4</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A14" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="29">
+        <v>13</v>
+      </c>
+      <c r="C14" s="29">
+        <v>15</v>
+      </c>
+      <c r="D14" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A15" s="29">
+        <v>1890</v>
+      </c>
+      <c r="B15" s="29">
+        <v>6</v>
+      </c>
+      <c r="C15" s="29">
+        <v>15</v>
+      </c>
+      <c r="D15" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A16" s="29">
+        <v>1900</v>
+      </c>
+      <c r="B16" s="29">
+        <v>6</v>
+      </c>
+      <c r="C16" s="29">
+        <v>15</v>
+      </c>
+      <c r="D16" s="29">
+        <v>5</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.3" customHeight="1">
+      <c r="A17" s="29">
+        <v>1910</v>
+      </c>
+      <c r="B17" s="29">
+        <v>6</v>
+      </c>
+      <c r="C17" s="29">
+        <v>15</v>
+      </c>
+      <c r="D17" s="29">
+        <v>3</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A18" s="29">
+        <v>2090</v>
+      </c>
+      <c r="B18" s="29">
+        <v>6</v>
+      </c>
+      <c r="C18" s="29">
+        <v>15</v>
+      </c>
+      <c r="D18" s="29">
+        <v>4</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A19" s="29">
+        <v>2100</v>
+      </c>
+      <c r="B19" s="29">
+        <v>6</v>
+      </c>
+      <c r="C19" s="29">
+        <v>15</v>
+      </c>
+      <c r="D19" s="29">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A20" s="29">
+        <v>2110</v>
+      </c>
+      <c r="B20" s="29">
+        <v>6</v>
+      </c>
+      <c r="C20" s="29">
+        <v>15</v>
+      </c>
+      <c r="D20" s="29">
+        <v>7</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A21" s="29">
+        <v>2048</v>
+      </c>
+      <c r="B21" s="29">
+        <v>2</v>
+      </c>
+      <c r="C21" s="29">
+        <v>28</v>
+      </c>
+      <c r="D21" s="29">
+        <v>5</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A22" s="29">
+        <v>2048</v>
+      </c>
+      <c r="B22" s="29">
+        <v>2</v>
+      </c>
+      <c r="C22" s="29">
+        <v>29</v>
+      </c>
+      <c r="D22" s="29">
+        <v>6</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A23" s="29">
         <v>2022</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B23" s="29">
+        <v>2</v>
+      </c>
+      <c r="C23" s="29">
+        <v>28</v>
+      </c>
+      <c r="D23" s="29">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A3" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="E23" s="25"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A24" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="29">
+        <v>2</v>
+      </c>
+      <c r="C24" s="29">
+        <v>29</v>
+      </c>
+      <c r="D24" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A25" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="29">
         <v>4</v>
       </c>
-      <c r="C3" s="23">
-        <v>5</v>
-      </c>
-      <c r="D3" s="23">
-        <v>5</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A4" s="26">
-        <v>2039</v>
-      </c>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26">
-        <v>12</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="C25" s="29">
+        <v>30</v>
+      </c>
+      <c r="D25" s="29">
         <v>6</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A5" s="25">
-        <v>15</v>
-      </c>
-      <c r="B5" s="25">
-        <v>15</v>
-      </c>
-      <c r="C5" s="25">
-        <v>29</v>
-      </c>
-      <c r="D5" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A6" s="25">
-        <v>3</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="E25" s="25"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A26" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="29">
         <v>4</v>
       </c>
-      <c r="C6" s="25">
-        <v>5</v>
-      </c>
-      <c r="D6" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A7" s="25">
-        <v>0</v>
-      </c>
-      <c r="B7" s="25">
-        <v>4</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A8" s="25">
-        <v>0</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A9" s="25">
-        <v>0</v>
-      </c>
-      <c r="B9" s="25">
-        <v>1</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A10" s="25">
-        <v>0</v>
-      </c>
-      <c r="B10" s="25">
-        <v>11</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0</v>
-      </c>
-      <c r="D10" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A11" s="25">
-        <v>0</v>
-      </c>
-      <c r="B11" s="25">
-        <v>10</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A12" s="25">
-        <v>20</v>
-      </c>
-      <c r="B12" s="25">
-        <v>4</v>
-      </c>
-      <c r="C12" s="25">
-        <v>20</v>
-      </c>
-      <c r="D12" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A13" s="25">
-        <v>20</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25">
-        <v>20</v>
-      </c>
-      <c r="D13" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A14" s="25">
-        <v>20</v>
-      </c>
-      <c r="B14" s="25">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25">
-        <v>20</v>
-      </c>
-      <c r="D14" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A15" s="25">
-        <v>20</v>
-      </c>
-      <c r="B15" s="25">
-        <v>11</v>
-      </c>
-      <c r="C15" s="25">
-        <v>20</v>
-      </c>
-      <c r="D15" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A16" s="25">
-        <v>20</v>
-      </c>
-      <c r="B16" s="25">
-        <v>10</v>
-      </c>
-      <c r="C16" s="25">
-        <v>20</v>
-      </c>
-      <c r="D16" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.25" customHeight="1">
-      <c r="A17" s="27">
-        <v>44640</v>
-      </c>
-      <c r="B17" s="25">
-        <v>4</v>
-      </c>
-      <c r="C17" s="27">
-        <v>44640</v>
-      </c>
-      <c r="D17" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="27">
-        <v>44640</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0</v>
-      </c>
-      <c r="C18" s="27">
-        <v>44640</v>
-      </c>
-      <c r="D18" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="27">
-        <v>44640</v>
-      </c>
-      <c r="B19" s="25">
-        <v>1</v>
-      </c>
-      <c r="C19" s="27">
-        <v>44640</v>
-      </c>
-      <c r="D19" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="27">
-        <v>44640</v>
-      </c>
-      <c r="B20" s="25">
-        <v>11</v>
-      </c>
-      <c r="C20" s="27">
-        <v>44640</v>
-      </c>
-      <c r="D20" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="27">
-        <v>44640</v>
-      </c>
-      <c r="B21" s="25">
-        <v>10</v>
-      </c>
-      <c r="C21" s="27">
-        <v>44640</v>
-      </c>
-      <c r="D21" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="27">
-        <v>44000</v>
-      </c>
-      <c r="B22" s="25">
-        <v>4</v>
-      </c>
-      <c r="C22" s="27">
-        <v>44000</v>
-      </c>
-      <c r="D22" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="25">
-        <v>44000</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0</v>
-      </c>
-      <c r="C23" s="25">
-        <v>44000</v>
-      </c>
-      <c r="D23" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="27">
-        <v>44000</v>
-      </c>
-      <c r="B24" s="25">
-        <v>1</v>
-      </c>
-      <c r="C24" s="27">
-        <v>44000</v>
-      </c>
-      <c r="D24" s="27">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="26">
-        <v>44000</v>
-      </c>
-      <c r="B25" s="26">
-        <v>11</v>
-      </c>
-      <c r="C25" s="26">
-        <v>44000</v>
-      </c>
-      <c r="D25" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="29">
-        <v>44000</v>
-      </c>
-      <c r="B26" s="26">
-        <v>10</v>
-      </c>
       <c r="C26" s="29">
-        <v>44000</v>
+        <v>31</v>
       </c>
       <c r="D26" s="29">
         <v>-1</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2477,17 +2509,17 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.33203125" style="13" customWidth="1"/>
-    <col min="4" max="6" width="16.33203125" style="13"/>
-    <col min="8" max="16384" width="16.33203125" style="13"/>
+    <col min="1" max="3" width="16.33203125" style="10" customWidth="1"/>
+    <col min="4" max="6" width="16.33203125" style="10"/>
+    <col min="8" max="16384" width="16.33203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
@@ -2497,13 +2529,13 @@
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2511,819 +2543,819 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="29">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29">
+        <v>25</v>
+      </c>
+      <c r="D2" s="29">
+        <v>7</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A3" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="29">
+        <v>4</v>
+      </c>
+      <c r="C3" s="29">
+        <v>28</v>
+      </c>
+      <c r="D3" s="29">
+        <v>3</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A4" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="29">
+        <v>4</v>
+      </c>
+      <c r="C4" s="29">
+        <v>29</v>
+      </c>
+      <c r="D4" s="29">
+        <v>4</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A5" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="29">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29">
+        <v>30</v>
+      </c>
+      <c r="D5" s="29">
+        <v>5</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A6" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="30">
+        <v>4</v>
+      </c>
+      <c r="C6" s="30">
+        <v>31</v>
+      </c>
+      <c r="D6" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A7" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="29">
+        <v>6</v>
+      </c>
+      <c r="C7" s="29">
+        <v>22</v>
+      </c>
+      <c r="D7" s="31">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A8" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="29">
+        <v>6</v>
+      </c>
+      <c r="C8" s="29">
+        <v>28</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A9" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="29">
+        <v>6</v>
+      </c>
+      <c r="C9" s="29">
+        <v>29</v>
+      </c>
+      <c r="D9" s="31">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A10" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="29">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29">
+        <v>30</v>
+      </c>
+      <c r="D10" s="31">
+        <v>3</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A11" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="30">
+        <v>6</v>
+      </c>
+      <c r="C11" s="30">
+        <v>31</v>
+      </c>
+      <c r="D11" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A12" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="29">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29">
+        <v>15</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A13" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="29">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31">
+        <v>7</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A14" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="29">
+        <v>2</v>
+      </c>
+      <c r="C14" s="29">
+        <v>29</v>
+      </c>
+      <c r="D14" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A15" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="29">
+        <v>2</v>
+      </c>
+      <c r="C15" s="29">
+        <v>30</v>
+      </c>
+      <c r="D15" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A16" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="30">
+        <v>2</v>
+      </c>
+      <c r="C16" s="30">
+        <v>31</v>
+      </c>
+      <c r="D16" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A17" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="29">
+        <v>12</v>
+      </c>
+      <c r="C17" s="29">
+        <v>15</v>
+      </c>
+      <c r="D17" s="31">
+        <v>3</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A18" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="29">
+        <v>12</v>
+      </c>
+      <c r="C18" s="29">
+        <v>28</v>
+      </c>
+      <c r="D18" s="31">
+        <v>2</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A19" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="29">
+        <v>12</v>
+      </c>
+      <c r="C19" s="29">
+        <v>29</v>
+      </c>
+      <c r="D19" s="31">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A20" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="29">
+        <v>12</v>
+      </c>
+      <c r="C20" s="29">
+        <v>30</v>
+      </c>
+      <c r="D20" s="31">
+        <v>4</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A21" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="30">
+        <v>12</v>
+      </c>
+      <c r="C21" s="30">
+        <v>31</v>
+      </c>
+      <c r="D21" s="31">
+        <v>5</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A22" s="29">
         <v>2022</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B22" s="29">
+        <v>4</v>
+      </c>
+      <c r="C22" s="29">
+        <v>25</v>
+      </c>
+      <c r="D22" s="31">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="E22" s="28"/>
+      <c r="F22" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A23" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="29">
+        <v>4</v>
+      </c>
+      <c r="C23" s="29">
+        <v>28</v>
+      </c>
+      <c r="D23" s="31">
+        <v>4</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A24" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="29">
+        <v>4</v>
+      </c>
+      <c r="C24" s="29">
+        <v>29</v>
+      </c>
+      <c r="D24" s="31">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E24" s="28"/>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A25" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="29">
+        <v>4</v>
+      </c>
+      <c r="C25" s="29">
+        <v>30</v>
+      </c>
+      <c r="D25" s="31">
+        <v>6</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A26" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="30">
+        <v>4</v>
+      </c>
+      <c r="C26" s="30">
+        <v>31</v>
+      </c>
+      <c r="D26" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A27" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="29">
+        <v>6</v>
+      </c>
+      <c r="C27" s="29">
+        <v>22</v>
+      </c>
+      <c r="D27" s="31">
         <v>3</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="15" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A28" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="29">
+        <v>6</v>
+      </c>
+      <c r="C28" s="29">
+        <v>28</v>
+      </c>
+      <c r="D28" s="31">
+        <v>2</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A29" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="29">
+        <v>29</v>
+      </c>
+      <c r="D29" s="31">
+        <v>3</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A30" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="29">
+        <v>6</v>
+      </c>
+      <c r="C30" s="29">
+        <v>30</v>
+      </c>
+      <c r="D30" s="31">
+        <v>4</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A31" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="30">
+        <v>6</v>
+      </c>
+      <c r="C31" s="30">
+        <v>31</v>
+      </c>
+      <c r="D31" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A32" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="29">
+        <v>2</v>
+      </c>
+      <c r="C32" s="29">
+        <v>15</v>
+      </c>
+      <c r="D32" s="31">
+        <v>2</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A33" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="29">
+        <v>2</v>
+      </c>
+      <c r="C33" s="29">
+        <v>28</v>
+      </c>
+      <c r="D33" s="31">
+        <v>1</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A34" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="29">
+        <v>2</v>
+      </c>
+      <c r="C34" s="29">
+        <v>29</v>
+      </c>
+      <c r="D34" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A35" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="29">
+        <v>2</v>
+      </c>
+      <c r="C35" s="29">
+        <v>30</v>
+      </c>
+      <c r="D35" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A36" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="30">
+        <v>2</v>
+      </c>
+      <c r="C36" s="30">
+        <v>31</v>
+      </c>
+      <c r="D36" s="31">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A37" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="29">
+        <v>12</v>
+      </c>
+      <c r="C37" s="29">
+        <v>15</v>
+      </c>
+      <c r="D37" s="31">
+        <v>4</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A38" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="29">
+        <v>12</v>
+      </c>
+      <c r="C38" s="29">
+        <v>28</v>
+      </c>
+      <c r="D38" s="31">
+        <v>3</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A39" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="29">
+        <v>12</v>
+      </c>
+      <c r="C39" s="29">
+        <v>29</v>
+      </c>
+      <c r="D39" s="31">
+        <v>4</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A40" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="29">
+        <v>12</v>
+      </c>
+      <c r="C40" s="29">
+        <v>30</v>
+      </c>
+      <c r="D40" s="31">
+        <v>5</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A41" s="29">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="30">
+        <v>12</v>
+      </c>
+      <c r="C41" s="30">
+        <v>31</v>
+      </c>
+      <c r="D41" s="31">
+        <v>6</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A42" s="17">
+        <v>20</v>
+      </c>
+      <c r="B42" s="8">
+        <v>7</v>
+      </c>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
+      <c r="D42" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A43" s="18">
+        <v>80</v>
+      </c>
+      <c r="B43" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A3" s="23">
-        <v>2024</v>
-      </c>
-      <c r="B3" s="24">
-        <v>4</v>
-      </c>
-      <c r="C3" s="23">
-        <v>5</v>
-      </c>
-      <c r="D3" s="23">
-        <v>5</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="15" t="s">
+      <c r="C43" s="18">
+        <v>80</v>
+      </c>
+      <c r="D43" s="18">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A44" s="18">
+        <v>150</v>
+      </c>
+      <c r="B44" s="8">
+        <v>9</v>
+      </c>
+      <c r="C44" s="18">
+        <v>150</v>
+      </c>
+      <c r="D44" s="18">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A45" s="18">
+        <v>200</v>
+      </c>
+      <c r="B45" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A4" s="26">
-        <v>2039</v>
-      </c>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26">
-        <v>12</v>
-      </c>
-      <c r="D4" s="26">
-        <v>6</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="15" t="s">
+      <c r="C45" s="18">
+        <v>200</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A46" s="18">
+        <v>500</v>
+      </c>
+      <c r="B46" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A5" s="25">
-        <v>15</v>
-      </c>
-      <c r="B5" s="25">
-        <v>15</v>
-      </c>
-      <c r="C5" s="25">
-        <v>29</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C46" s="18">
+        <v>500</v>
+      </c>
+      <c r="D46" s="18">
         <v>-1</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A6" s="25">
-        <v>3</v>
-      </c>
-      <c r="B6" s="25">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25">
-        <v>5</v>
-      </c>
-      <c r="D6" s="25">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A7" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D7" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A8" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D8" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D9" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D10" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D11" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="11">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C12" s="11">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="11">
-        <v>80</v>
-      </c>
-      <c r="B13" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C13" s="11">
-        <v>80</v>
-      </c>
-      <c r="D13" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="11">
-        <v>150</v>
-      </c>
-      <c r="B14" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C14" s="11">
-        <v>150</v>
-      </c>
-      <c r="D14" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="11">
-        <v>200</v>
-      </c>
-      <c r="B15" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C15" s="11">
-        <v>200</v>
-      </c>
-      <c r="D15" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="11">
-        <v>500</v>
-      </c>
-      <c r="B16" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C16" s="11">
-        <v>500</v>
-      </c>
-      <c r="D16" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="11">
-        <v>20</v>
-      </c>
-      <c r="B17" s="11">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11">
-        <v>20</v>
-      </c>
-      <c r="D17" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="11">
-        <v>80</v>
-      </c>
-      <c r="B18" s="11">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11">
-        <v>80</v>
-      </c>
-      <c r="D18" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="11">
-        <v>150</v>
-      </c>
-      <c r="B19" s="20">
-        <v>15</v>
-      </c>
-      <c r="C19" s="11">
-        <v>150</v>
-      </c>
-      <c r="D19" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="11">
-        <v>200</v>
-      </c>
-      <c r="B20" s="11">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11">
-        <v>200</v>
-      </c>
-      <c r="D20" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="11">
-        <v>500</v>
-      </c>
-      <c r="B21" s="11">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11">
-        <v>500</v>
-      </c>
-      <c r="D21" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="21">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="21">
-        <v>20</v>
-      </c>
-      <c r="D22" s="21">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="22">
-        <v>80</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1</v>
-      </c>
-      <c r="C23" s="22">
-        <v>80</v>
-      </c>
-      <c r="D23" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="22">
-        <v>150</v>
-      </c>
-      <c r="B24" s="11">
-        <v>1</v>
-      </c>
-      <c r="C24" s="22">
-        <v>150</v>
-      </c>
-      <c r="D24" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="22">
-        <v>200</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1</v>
-      </c>
-      <c r="C25" s="22">
-        <v>200</v>
-      </c>
-      <c r="D25" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="22">
-        <v>500</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1</v>
-      </c>
-      <c r="C26" s="22">
-        <v>500</v>
-      </c>
-      <c r="D26" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
-      <c r="A27" s="21">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11">
-        <v>2</v>
-      </c>
-      <c r="C27" s="21">
-        <v>20</v>
-      </c>
-      <c r="D27" s="21">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
-      <c r="A28" s="22">
-        <v>80</v>
-      </c>
-      <c r="B28" s="11">
-        <v>2</v>
-      </c>
-      <c r="C28" s="22">
-        <v>80</v>
-      </c>
-      <c r="D28" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
-      <c r="A29" s="22">
-        <v>150</v>
-      </c>
-      <c r="B29" s="11">
-        <v>2</v>
-      </c>
-      <c r="C29" s="22">
-        <v>150</v>
-      </c>
-      <c r="D29" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
-      <c r="A30" s="22">
-        <v>200</v>
-      </c>
-      <c r="B30" s="11">
-        <v>2</v>
-      </c>
-      <c r="C30" s="22">
-        <v>200</v>
-      </c>
-      <c r="D30" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
-      <c r="A31" s="22">
-        <v>500</v>
-      </c>
-      <c r="B31" s="11">
-        <v>2</v>
-      </c>
-      <c r="C31" s="22">
-        <v>500</v>
-      </c>
-      <c r="D31" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
-      <c r="A32" s="21">
-        <v>20</v>
-      </c>
-      <c r="B32" s="11">
-        <v>3</v>
-      </c>
-      <c r="C32" s="21">
-        <v>20</v>
-      </c>
-      <c r="D32" s="21">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
-      <c r="A33" s="22">
-        <v>80</v>
-      </c>
-      <c r="B33" s="11">
-        <v>3</v>
-      </c>
-      <c r="C33" s="22">
-        <v>80</v>
-      </c>
-      <c r="D33" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
-      <c r="A34" s="22">
-        <v>150</v>
-      </c>
-      <c r="B34" s="11">
-        <v>3</v>
-      </c>
-      <c r="C34" s="22">
-        <v>150</v>
-      </c>
-      <c r="D34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
-      <c r="A35" s="22">
-        <v>200</v>
-      </c>
-      <c r="B35" s="11">
-        <v>3</v>
-      </c>
-      <c r="C35" s="22">
-        <v>200</v>
-      </c>
-      <c r="D35" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
-      <c r="A36" s="22">
-        <v>500</v>
-      </c>
-      <c r="B36" s="11">
-        <v>3</v>
-      </c>
-      <c r="C36" s="22">
-        <v>500</v>
-      </c>
-      <c r="D36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
-      <c r="A37" s="21">
-        <v>20</v>
-      </c>
-      <c r="B37" s="11">
-        <v>4</v>
-      </c>
-      <c r="C37" s="21">
-        <v>20</v>
-      </c>
-      <c r="D37" s="21">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
-      <c r="A38" s="22">
-        <v>80</v>
-      </c>
-      <c r="B38" s="11">
-        <v>5</v>
-      </c>
-      <c r="C38" s="22">
-        <v>80</v>
-      </c>
-      <c r="D38" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
-      <c r="A39" s="22">
-        <v>150</v>
-      </c>
-      <c r="B39" s="11">
-        <v>6</v>
-      </c>
-      <c r="C39" s="22">
-        <v>150</v>
-      </c>
-      <c r="D39" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
-      <c r="A40" s="22">
-        <v>200</v>
-      </c>
-      <c r="B40" s="11">
-        <v>5</v>
-      </c>
-      <c r="C40" s="22">
-        <v>200</v>
-      </c>
-      <c r="D40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
-      <c r="A41" s="22">
-        <v>500</v>
-      </c>
-      <c r="B41" s="11">
-        <v>6</v>
-      </c>
-      <c r="C41" s="22">
-        <v>500</v>
-      </c>
-      <c r="D41" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
-      <c r="A42" s="21">
-        <v>20</v>
-      </c>
-      <c r="B42" s="11">
-        <v>7</v>
-      </c>
-      <c r="C42" s="21">
-        <v>20</v>
-      </c>
-      <c r="D42" s="21">
-        <v>-1</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
-      <c r="A43" s="22">
-        <v>80</v>
-      </c>
-      <c r="B43" s="11">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22">
-        <v>80</v>
-      </c>
-      <c r="D43" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
-      <c r="A44" s="22">
-        <v>150</v>
-      </c>
-      <c r="B44" s="11">
-        <v>9</v>
-      </c>
-      <c r="C44" s="22">
-        <v>150</v>
-      </c>
-      <c r="D44" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
-      <c r="A45" s="22">
-        <v>200</v>
-      </c>
-      <c r="B45" s="11">
-        <v>8</v>
-      </c>
-      <c r="C45" s="22">
-        <v>200</v>
-      </c>
-      <c r="D45" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
-      <c r="A46" s="22">
-        <v>500</v>
-      </c>
-      <c r="B46" s="11">
-        <v>9</v>
-      </c>
-      <c r="C46" s="22">
-        <v>500</v>
-      </c>
-      <c r="D46" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="19" t="s">
+      <c r="E46" s="28"/>
+      <c r="F46" s="16" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/java/testing/excel/hw8.xlsx
+++ b/src/main/java/testing/excel/hw8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件测试\soltware_testing-master\src\main\java\testing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE5A1CD-C2B4-4E79-873D-8191CDECAB9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E46CEFD-5F47-4727-B340-10BDE3951F99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6816" yWindow="504" windowWidth="21024" windowHeight="16020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6816" yWindow="504" windowWidth="21024" windowHeight="16020" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -233,26 +233,6 @@
   </si>
   <si>
     <t>x4 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1902,7 +1882,7 @@
   <sheetData>
     <row r="3" spans="2:4" ht="49.95" customHeight="1">
       <c r="B3" s="32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -1931,7 +1911,7 @@
     <row r="10" spans="2:4" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>6</v>
@@ -1947,7 +1927,7 @@
     <row r="12" spans="2:4" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>7</v>
@@ -1970,11 +1950,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1985,19 +1965,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F1" s="6"/>
     </row>
@@ -2402,22 +2382,46 @@
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="A27" s="29">
+        <v>1900</v>
+      </c>
+      <c r="B27" s="29">
+        <v>12</v>
+      </c>
+      <c r="C27" s="29">
+        <v>31</v>
+      </c>
+      <c r="D27" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="A28" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B28" s="29">
+        <v>12</v>
+      </c>
+      <c r="C28" s="29">
+        <v>31</v>
+      </c>
+      <c r="D28" s="29">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="A29" s="29">
+        <v>2100</v>
+      </c>
+      <c r="B29" s="29">
+        <v>12</v>
+      </c>
+      <c r="C29" s="29">
+        <v>31</v>
+      </c>
+      <c r="D29" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="19.95" customHeight="1">
       <c r="A30" s="29"/>
@@ -2508,11 +2512,11 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D41"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -2524,19 +2528,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -3263,94 +3267,44 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A42" s="17">
-        <v>20</v>
-      </c>
-      <c r="B42" s="8">
-        <v>7</v>
-      </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
-      <c r="D42" s="17">
-        <v>-1</v>
-      </c>
+      <c r="A42" s="17"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="28"/>
-      <c r="F42" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A43" s="18">
-        <v>80</v>
-      </c>
-      <c r="B43" s="8">
-        <v>8</v>
-      </c>
-      <c r="C43" s="18">
-        <v>80</v>
-      </c>
-      <c r="D43" s="18">
-        <v>-1</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="28"/>
-      <c r="F43" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A44" s="18">
-        <v>150</v>
-      </c>
-      <c r="B44" s="8">
-        <v>9</v>
-      </c>
-      <c r="C44" s="18">
-        <v>150</v>
-      </c>
-      <c r="D44" s="18">
-        <v>-1</v>
-      </c>
+      <c r="A44" s="18"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A45" s="18">
-        <v>200</v>
-      </c>
-      <c r="B45" s="8">
-        <v>8</v>
-      </c>
-      <c r="C45" s="18">
-        <v>200</v>
-      </c>
-      <c r="D45" s="18">
-        <v>-1</v>
-      </c>
+      <c r="A45" s="18"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="28"/>
-      <c r="F45" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A46" s="18">
-        <v>500</v>
-      </c>
-      <c r="B46" s="8">
-        <v>9</v>
-      </c>
-      <c r="C46" s="18">
-        <v>500</v>
-      </c>
-      <c r="D46" s="18">
-        <v>-1</v>
-      </c>
+      <c r="A46" s="18"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="28"/>
-      <c r="F46" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="F46" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
